--- a/biology/Médecine/Auguste_Verdeil/Auguste_Verdeil.xlsx
+++ b/biology/Médecine/Auguste_Verdeil/Auguste_Verdeil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Guillaume Elzéard Verdeil, né le 13 avril 1793 à Avignon et mort le 23 avril 1856 à Lausanne, est un médecin, député et historien suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de François Verdeil (1747-1832) et de Sophie Dufey (1753-1841). Ses parents, pour échapper à la condamnation des autorités bernoises qui occupent le canton de Vaud, s'exilent en France de 1792 à 1794. Auguste Verdeil naît à Avignon le 13 avril 1793. Après le retour en Suisse de la famille Verdeil, son père reprend sa pratique médicale. À la suite de la création de la nouvelle administration vaudoise, il devient chef du Bureau de la santé et médecin-chef de l'hôpital cantonal.
 Auguste fait ses premières classes à Lausanne. Son père le destine à être médecin et l'envoie donc ensuite à Genève pour suivre les cours de médecine à l'Académie. Il continue ses études à Paris de 1813 à 1815, puis à Édimbourg où il défend en 1817 une thèse sur les rapports de la géologie avec la médecine, étudiant les influences des sites et des terrains sur la santé et l'hygiène. Ce travail lui ouvre les portes de la Société royale de sciences d'Édimbourg. Il effectue quelques voyages en Europe en compagnie de géologues.
@@ -551,7 +565,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son second fils, François Verdeil, devenu médecin, a rédigé un traité de chimie organique avec Charles Robin.
 </t>
@@ -582,7 +598,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lausanne possède une avenue Dr-Auguste-Verdeil (de l'avenue des Mousquines à l'avenue Charles-Secrétan), sur décision municipale de 1908, à la demande de particuliers.
 </t>
@@ -613,7 +631,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Louis Polla, Rues de Lausanne, Lausanne, éditions 24 heures, 1981, 118-119 p. (ISBN 978-2-8265-0050-6)</t>
         </is>
